--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/a-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>F11r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H2">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N2">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q2">
-        <v>4.551074155139999</v>
+        <v>1.855051970737</v>
       </c>
       <c r="R2">
-        <v>40.95966739626</v>
+        <v>16.695467736633</v>
       </c>
       <c r="S2">
-        <v>0.7650795756208056</v>
+        <v>0.148433001639772</v>
       </c>
       <c r="T2">
-        <v>0.7650795756208056</v>
+        <v>0.148433001639772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H3">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.495648</v>
       </c>
       <c r="O3">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P3">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q3">
-        <v>0.035552170176</v>
+        <v>0.007490728223999999</v>
       </c>
       <c r="R3">
-        <v>0.319969531584</v>
+        <v>0.06741655401600001</v>
       </c>
       <c r="S3">
-        <v>0.005976663605872625</v>
+        <v>0.0005993747303555809</v>
       </c>
       <c r="T3">
-        <v>0.005976663605872626</v>
+        <v>0.0005993747303555812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H4">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N4">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O4">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P4">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q4">
-        <v>0.1043857961273333</v>
+        <v>0.020137981822</v>
       </c>
       <c r="R4">
-        <v>0.9394721651459998</v>
+        <v>0.181241836398</v>
       </c>
       <c r="S4">
-        <v>0.01754826176843153</v>
+        <v>0.001611351668826323</v>
       </c>
       <c r="T4">
-        <v>0.01754826176843154</v>
+        <v>0.001611351668826324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.215186</v>
+        <v>0.045339</v>
       </c>
       <c r="H5">
-        <v>0.645558</v>
+        <v>0.136017</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1740293637846656</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N5">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q5">
-        <v>1.25748565599</v>
+        <v>0.292263642167</v>
       </c>
       <c r="R5">
-        <v>11.31737090391</v>
+        <v>2.630372779503</v>
       </c>
       <c r="S5">
-        <v>0.2113954990048902</v>
+        <v>0.02338563574571166</v>
       </c>
       <c r="T5">
-        <v>0.2113954990048902</v>
+        <v>0.02338563574571166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.215186</v>
+      </c>
+      <c r="H6">
+        <v>0.645558</v>
+      </c>
+      <c r="I6">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J6">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>40.91514966666667</v>
+      </c>
+      <c r="N6">
+        <v>122.745449</v>
+      </c>
+      <c r="O6">
+        <v>0.8529192913871414</v>
+      </c>
+      <c r="P6">
+        <v>0.8529192913871415</v>
+      </c>
+      <c r="Q6">
+        <v>8.804367396171333</v>
+      </c>
+      <c r="R6">
+        <v>79.23930656554199</v>
+      </c>
+      <c r="S6">
+        <v>0.7044862897473694</v>
+      </c>
+      <c r="T6">
+        <v>0.7044862897473696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.215186</v>
+      </c>
+      <c r="H7">
+        <v>0.645558</v>
+      </c>
+      <c r="I7">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J7">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.165216</v>
+      </c>
+      <c r="N7">
+        <v>0.495648</v>
+      </c>
+      <c r="O7">
+        <v>0.00344410114086962</v>
+      </c>
+      <c r="P7">
+        <v>0.003444101140869621</v>
+      </c>
+      <c r="Q7">
+        <v>0.035552170176</v>
+      </c>
+      <c r="R7">
+        <v>0.319969531584</v>
+      </c>
+      <c r="S7">
+        <v>0.00284472641051404</v>
+      </c>
+      <c r="T7">
+        <v>0.00284472641051404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.215186</v>
+      </c>
+      <c r="H8">
+        <v>0.645558</v>
+      </c>
+      <c r="I8">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J8">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.4441646666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.332494</v>
+      </c>
+      <c r="O8">
+        <v>0.009259079236881667</v>
+      </c>
+      <c r="P8">
+        <v>0.009259079236881667</v>
+      </c>
+      <c r="Q8">
+        <v>0.09557801796133333</v>
+      </c>
+      <c r="R8">
+        <v>0.860202161652</v>
+      </c>
+      <c r="S8">
+        <v>0.007647727568055343</v>
+      </c>
+      <c r="T8">
+        <v>0.007647727568055344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.215186</v>
+      </c>
+      <c r="H9">
+        <v>0.645558</v>
+      </c>
+      <c r="I9">
+        <v>0.8259706362153344</v>
+      </c>
+      <c r="J9">
+        <v>0.8259706362153345</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.446186333333333</v>
+      </c>
+      <c r="N9">
+        <v>19.338559</v>
+      </c>
+      <c r="O9">
+        <v>0.1343775282351073</v>
+      </c>
+      <c r="P9">
+        <v>0.1343775282351073</v>
+      </c>
+      <c r="Q9">
+        <v>1.387129052324667</v>
+      </c>
+      <c r="R9">
+        <v>12.484161470922</v>
+      </c>
+      <c r="S9">
+        <v>0.1109918924893956</v>
+      </c>
+      <c r="T9">
+        <v>0.1109918924893957</v>
       </c>
     </row>
   </sheetData>
